--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1034680.017321937</v>
+        <v>-972785.5019080201</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17372041.81341184</v>
+        <v>16759483.4356938</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9960245.959251145</v>
+        <v>9930054.82119555</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>109.1949067429153</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>318.4456162021804</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>138.5239954881602</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>72.27225932124023</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255877</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,10 +908,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>27.23413167358978</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>156.4691530425972</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>24.02675748832825</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>152.9902188350819</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>44.77069105473495</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>173.9001345736169</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>277.1393636364641</v>
       </c>
       <c r="C11" t="n">
-        <v>264.0350006886438</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>31.28831241118219</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1579,16 +1579,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>66.62423533023181</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.5144690908971</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>172.493324008032</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>140.8018738998308</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>108.5103196251642</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>40.41933309831674</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>50.05924486566766</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>22.28534392847732</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>103.8284742946036</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432402</v>
+        <v>71.53763939432389</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934444</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3427,7 +3427,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432389</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3554,7 +3554,7 @@
         <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169449</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U38" t="n">
         <v>240.3943693174059</v>
@@ -3566,7 +3566,7 @@
         <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477354</v>
       </c>
       <c r="Y38" t="n">
         <v>387.9675521245957</v>
@@ -3664,7 +3664,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432373</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1348.201254839347</v>
+        <v>973.506815168041</v>
       </c>
       <c r="C2" t="n">
-        <v>919.6195805766158</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="D2" t="n">
-        <v>887.7501997914644</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F2" t="n">
         <v>435.3414999783445</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1374.706140943794</v>
+        <v>973.506815168041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1370.460421283851</v>
+        <v>973.506815168041</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>707.7326516402958</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C4" t="n">
-        <v>535.1709401235207</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>369.2929473250434</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1376.601012317968</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1376.601012317968</v>
       </c>
       <c r="V4" t="n">
-        <v>972.5535525019498</v>
+        <v>1089.645504188398</v>
       </c>
       <c r="W4" t="n">
-        <v>972.5535525019498</v>
+        <v>817.6190997746896</v>
       </c>
       <c r="X4" t="n">
-        <v>899.5512703592829</v>
+        <v>572.2273451081021</v>
       </c>
       <c r="Y4" t="n">
-        <v>899.5512703592829</v>
+        <v>572.2273451081021</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>893.6059403867811</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>859.5038716106085</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>423.594086785053</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>393.8597459837522</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>370.032720433364</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.523496520647</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>140.9404918261453</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>801.6830986289535</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.425705431762</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.16831223457</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2669.667098193165</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193165</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.015224377002</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2365.94799725004</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2106.725694567057</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.108744500883</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1743.293693952321</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1324.151230531631</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>915.8651068312848</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5650869551561</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1086257917984</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0183369383516</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.8979222653053</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5140838814669</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.12899414765081</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="N6" t="n">
-        <v>453.9965675465116</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="O6" t="n">
-        <v>874.0494664914149</v>
+        <v>714.1359487666715</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.460325348332</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.633103442672</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.177665891055</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.999022221657</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.662475221625</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.544957283624</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2222030168184</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3547672556984</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8689880349192</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.2620836946041</v>
+        <v>962.6934988264819</v>
       </c>
       <c r="C7" t="n">
-        <v>368.7003721778291</v>
+        <v>790.1317873097069</v>
       </c>
       <c r="D7" t="n">
-        <v>368.7003721778291</v>
+        <v>624.2537945112296</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2537945112296</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.5467404729858</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9554654988135</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.053291189188</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386329</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.587173455055</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.3456280261906</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.5555097941517</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.039376975065</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.298180132709</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2153.96742935849</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.474323328832</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193165</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.249276898537</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.007908196533</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2464.738456188121</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>2186.305455441226</v>
       </c>
       <c r="V7" t="n">
-        <v>1005.1071068273</v>
+        <v>1899.349947311657</v>
       </c>
       <c r="W7" t="n">
-        <v>733.0807024135913</v>
+        <v>1627.323542897948</v>
       </c>
       <c r="X7" t="n">
-        <v>733.0807024135913</v>
+        <v>1381.931788231361</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.0807024135913</v>
+        <v>1154.512117545469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>287.6482811003507</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>133.1127065194599</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>101.2433257343085</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>71.5089849330077</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>47.6819593826195</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>47.6819593826195</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>47.6819593826195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>637.7462067425357</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>637.7462067425357</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1227.810454102452</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1668.445118419323</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.943904377918</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2384.097969130975</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2384.097969130975</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2164.030742004014</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1904.80843932103</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.191489254857</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1541.376438706294</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>1122.233975285605</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>713.9478515852585</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.8537043739123</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.3972432105546</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3069543571078</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.1865396840615</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8027013002231</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.41761156640703</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.74563254307711</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>398.3039575092894</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>398.3039575092894</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>462.9457567750969</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>462.9457567750969</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>462.9457567750969</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.010004135013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.010004135013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.748942767089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.921720861428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.466283309811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.287639640413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1340.951092640381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.833574702381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5108204355747</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6433846744546</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.1576054536754</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>525.7371201831924</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>353.1754086664173</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>353.1754086664173</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>353.1754086664173</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>353.1754086664173</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>187.584133692245</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>47.6819593826195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.2616445473093</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>409.0200991184449</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>827.229980886406</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1006.470247912875</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1448.729051070519</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1868.398300296301</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2215.905194266642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2384.097969130975</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2362.680147836347</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2203.438779134343</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2027.782077544831</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1749.349076797937</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1462.393568668367</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
-        <v>1190.367164254659</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>944.9754095880712</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>717.5557389021794</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.406883174881</v>
+        <v>2524.205911056827</v>
       </c>
       <c r="C11" t="n">
-        <v>2078.70486227726</v>
+        <v>2086.06343824025</v>
       </c>
       <c r="D11" t="n">
-        <v>1642.795077451705</v>
+        <v>1650.153653414695</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.02033261</v>
+        <v>1216.37890857299</v>
       </c>
       <c r="F11" t="n">
-        <v>781.1529030192075</v>
+        <v>788.5114789821977</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7550716424714</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>90.62491708568766</v>
+        <v>97.98349304867783</v>
       </c>
       <c r="I11" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J11" t="n">
-        <v>525.4628151657455</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K11" t="n">
-        <v>1359.813107123923</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L11" t="n">
-        <v>1359.813107123923</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M11" t="n">
-        <v>1359.813107123923</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="N11" t="n">
-        <v>2476.138687570166</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O11" t="n">
-        <v>2966.443660096336</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.753534929732</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q11" t="n">
-        <v>4341.252320888327</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R11" t="n">
-        <v>4510.406385641383</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S11" t="n">
-        <v>4426.75451182522</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="T11" t="n">
-        <v>4206.687284698259</v>
+        <v>4658.26795666393</v>
       </c>
       <c r="U11" t="n">
-        <v>3947.464982015275</v>
+        <v>4399.045653980947</v>
       </c>
       <c r="V11" t="n">
-        <v>3584.848031949102</v>
+        <v>4036.428703914773</v>
       </c>
       <c r="W11" t="n">
-        <v>3179.992577360135</v>
+        <v>3631.573249325807</v>
       </c>
       <c r="X11" t="n">
-        <v>3179.992577360135</v>
+        <v>3212.430785905117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2771.706453659789</v>
+        <v>2804.144662204771</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.3798727041204</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>489.9234115407627</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>394.833122687316</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>300.7127080142697</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>217.3288696304313</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>131.9437798966152</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I12" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J12" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K12" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L12" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M12" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N12" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.00973753113</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.00973753113</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.275111097297</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1753.447889191636</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1689.992451640019</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1559.813807970621</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1383.477260970589</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.359743032589</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>999.0369887657828</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>844.1695530046628</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>717.6837737838836</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1024.163590257357</v>
+        <v>1176.624864287699</v>
       </c>
       <c r="C13" t="n">
-        <v>851.6018787405815</v>
+        <v>1004.063152770924</v>
       </c>
       <c r="D13" t="n">
-        <v>685.7238859421043</v>
+        <v>838.1851599724469</v>
       </c>
       <c r="E13" t="n">
-        <v>515.9658821928415</v>
+        <v>668.4271562231842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.3615262219502</v>
+        <v>491.7201021849403</v>
       </c>
       <c r="G13" t="n">
-        <v>318.7702512477778</v>
+        <v>326.128827210768</v>
       </c>
       <c r="H13" t="n">
-        <v>178.8680769381523</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="I13" t="n">
-        <v>90.20812771282766</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J13" t="n">
-        <v>176.7878128775175</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>451.5462674486531</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>869.7561492166142</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.240016397527</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1771.498819555172</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.168068780953</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2538.674962751295</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2706.867737615627</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2685.449916320999</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="S13" t="n">
-        <v>2526.208547618996</v>
+        <v>2533.567123581985</v>
       </c>
       <c r="T13" t="n">
-        <v>2526.208547618996</v>
+        <v>2287.687677160441</v>
       </c>
       <c r="U13" t="n">
-        <v>2247.775546872101</v>
+        <v>2128.210416488735</v>
       </c>
       <c r="V13" t="n">
-        <v>1960.820038742532</v>
+        <v>1841.254908359166</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.793634328823</v>
+        <v>1841.254908359166</v>
       </c>
       <c r="X13" t="n">
-        <v>1443.401879662235</v>
+        <v>1595.863153692578</v>
       </c>
       <c r="Y13" t="n">
-        <v>1215.982208976344</v>
+        <v>1368.443483006686</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2160.971249502281</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1722.828776685704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1286.918991860149</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>853.1442470184438</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>785.8470396141693</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>384.4492082374332</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>95.31905368064945</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I14" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>94.90226430778945</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K14" t="n">
-        <v>94.90226430778945</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L14" t="n">
-        <v>94.90226430778945</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>1251.95009951834</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>2377.681082954787</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3201.150489844425</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4029.460364677821</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4575.959150636416</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4745.113215389472</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4661.461341573309</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4441.394114446348</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4182.171811763365</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3819.554861697191</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3414.699407108224</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2995.556943687535</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2587.270819987189</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>280.507142580985</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.230309060183</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.969247692259</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1173.960424919671</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C16" t="n">
-        <v>1001.398713402896</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D16" t="n">
-        <v>835.5207206044186</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E16" t="n">
-        <v>665.7627168551558</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F16" t="n">
-        <v>489.055662816912</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>323.4643878427396</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>183.5622135331141</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>456.2404040436148</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2690.144052915961</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2676.493074036267</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2430.613627614723</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2152.180626867828</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V16" t="n">
-        <v>1865.225118738258</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W16" t="n">
-        <v>1593.19871432455</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X16" t="n">
-        <v>1593.19871432455</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y16" t="n">
-        <v>1365.779043638658</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2521.541471688799</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2083.398998872222</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.489214046666</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.714469204961</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>785.8470396141693</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>384.4492082374332</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>95.31905368064945</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>94.90226430778945</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K17" t="n">
-        <v>94.90226430778945</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L17" t="n">
-        <v>94.90226430778945</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1095.239839837672</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2220.970823274119</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3201.150489844425</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4029.460364677821</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4575.959150636416</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4745.113215389472</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4745.113215389472</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4525.045988262511</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4265.823685579528</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>3903.206735513354</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3498.351280924388</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.127165874053</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2947.841042173706</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>280.507142580985</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.230309060183</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.969247692259</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.3983013847209</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>772.8365898679458</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>606.9585970694684</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>437.2005933202056</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4935392819618</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>456.2404040436148</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2690.144052915961</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2530.902684213957</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2285.023237792413</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2006.590237045518</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1719.634728915948</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1610.028345456187</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1364.6365907896</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1137.216920103708</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2160.971249502282</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>1722.828776685705</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1286.91899186015</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>853.1442470184447</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>425.2768174276525</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>384.4492082374333</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>95.31905368064946</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>94.90226430778947</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K20" t="n">
-        <v>94.90226430778947</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L20" t="n">
-        <v>94.90226430778947</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1251.95009951834</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2377.681082954787</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3357.860749525094</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4186.17062435849</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4575.959150636417</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>4745.113215389473</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>4661.46134157331</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4441.394114446349</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.171811763365</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.554861697192</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3414.699407108225</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>2995.556943687536</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2587.270819987189</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>280.507142580985</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.230309060183</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.969247692259</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>919.709200720174</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>747.1474892033989</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>581.2694964049217</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E22" t="n">
-        <v>411.5114926556589</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F22" t="n">
-        <v>234.8044386174151</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G22" t="n">
-        <v>234.8044386174151</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>456.2404040436149</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2690.144052915961</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2667.633604503358</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2421.754158081813</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2143.321157334919</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1856.365649205349</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1584.33924479164</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1338.947490125053</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.527819439161</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3800.474012941002</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4628.783887774398</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,22 +6063,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
         <v>287.8657185439749</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883913</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716163</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407378</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
         <v>306.120802776629</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,7 +6409,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
         <v>2454.80183470935</v>
@@ -6461,10 +6461,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L29" t="n">
         <v>306.120802776629</v>
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6698,13 +6698,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.521082083228</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806459</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6877,7 +6877,7 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174706</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6935,19 +6935,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>502.6211945723451</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1336.971486530523</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2412.031452783383</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>3569.079287993933</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -7014,19 +7014,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7072,22 +7072,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030279</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>174.521082083228</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7108,13 +7108,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
         <v>2842.489162174706</v>
@@ -7126,7 +7126,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
         <v>1937.578667826198</v>
@@ -7135,7 +7135,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7178,22 +7178,22 @@
         <v>97.56670367581785</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581785</v>
+        <v>617.912758987136</v>
       </c>
       <c r="M38" t="n">
-        <v>1254.614538886369</v>
+        <v>1774.960594197687</v>
       </c>
       <c r="N38" t="n">
-        <v>2380.345522322816</v>
+        <v>2900.691577634134</v>
       </c>
       <c r="O38" t="n">
-        <v>3360.525188893122</v>
+        <v>3880.87124420444</v>
       </c>
       <c r="P38" t="n">
-        <v>4188.835063726518</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="Q38" t="n">
-        <v>4735.333849685113</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7202,10 +7202,10 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7248,22 +7248,22 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="O39" t="n">
         <v>283.1715819490133</v>
@@ -7312,19 +7312,19 @@
         <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
         <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882662</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581785</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7415,28 +7415,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5680377815977</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.615872992149</v>
+        <v>1254.614538886369</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428595</v>
+        <v>2380.345522322816</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998902</v>
+        <v>3360.525188893122</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832298</v>
+        <v>4188.835063726518</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790892</v>
+        <v>4735.333849685113</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7485,22 +7485,22 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="O42" t="n">
         <v>283.1715819490133</v>
@@ -7546,22 +7546,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716792</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581785</v>
@@ -7597,10 +7597,10 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7640,37 +7640,37 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.614538886369</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N44" t="n">
-        <v>2380.345522322816</v>
+        <v>4289.755780533854</v>
       </c>
       <c r="O44" t="n">
-        <v>3360.525188893122</v>
+        <v>4289.755780533854</v>
       </c>
       <c r="P44" t="n">
-        <v>4188.835063726518</v>
+        <v>4289.755780533854</v>
       </c>
       <c r="Q44" t="n">
-        <v>4735.333849685113</v>
+        <v>4836.254566492448</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387605</v>
@@ -7719,25 +7719,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O45" t="n">
         <v>283.1715819490133</v>
@@ -7798,10 +7798,10 @@
         <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7822,7 +7822,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -8055,19 +8055,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>262.4693064538401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="N4" t="n">
-        <v>58.38468441396105</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,22 +8222,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.4314645073556</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="P6" t="n">
-        <v>288.796249040161</v>
+        <v>348.066098938975</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.06447625372903</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,16 +8459,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>596.0244922827437</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827436</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>445.0855195119912</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>65.29474673313882</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>596.0244922827437</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>181.0507747742107</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N11" t="n">
-        <v>1127.601596410346</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>495.2575480062328</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>831.7872796865026</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1010.441995484729</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>393.7257841191176</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9656,10 +9656,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>489.1496219844275</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>404.4043982844095</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>525.6020760720386</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>144.4457920260402</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>144.4457920260403</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>144.4457920260402</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11309,16 +11309,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>144.4457920260402</v>
+        <v>42.50567403883178</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>181.6397776791097</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>144.8972111435946</v>
       </c>
       <c r="C11" t="n">
-        <v>169.7260473997671</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>356.9645199646525</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>144.1344859240862</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2.667634437750249e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>274.1491648866516</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>160.7958207444072</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>356.964519964652</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>135.363611086506</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>884643.077819174</v>
+        <v>697108.1976105438</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792523.5253269292</v>
+        <v>839407.2453790868</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822431.2937744739</v>
+        <v>869315.0138266311</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822431.2937744739</v>
+        <v>869315.0138266314</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822431.2937744738</v>
+        <v>869315.0138266311</v>
       </c>
     </row>
     <row r="9">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53614.73198904084</v>
+        <v>42248.98167336631</v>
       </c>
       <c r="C2" t="n">
         <v>53614.73198904085</v>
       </c>
       <c r="D2" t="n">
-        <v>53614.73198904085</v>
+        <v>53614.73198904086</v>
       </c>
       <c r="E2" t="n">
-        <v>48031.72880769269</v>
+        <v>50873.16638661133</v>
       </c>
       <c r="F2" t="n">
-        <v>49844.32083481659</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="G2" t="n">
-        <v>49844.32083481661</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="H2" t="n">
-        <v>49844.32083481659</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="I2" t="n">
         <v>52685.75841373524</v>
       </c>
       <c r="J2" t="n">
-        <v>52685.75841373522</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="K2" t="n">
-        <v>52685.75841373523</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="L2" t="n">
         <v>53614.73198904088</v>
@@ -26350,7 +26350,7 @@
         <v>53614.73198904083</v>
       </c>
       <c r="O2" t="n">
-        <v>53614.73198904086</v>
+        <v>53614.73198904085</v>
       </c>
       <c r="P2" t="n">
         <v>53614.73198904085</v>
@@ -26366,13 +26366,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.24144524542</v>
       </c>
       <c r="D3" t="n">
-        <v>53344.06581631866</v>
+        <v>30.57595066289636</v>
       </c>
       <c r="E3" t="n">
-        <v>158717.2285962111</v>
+        <v>164835.5352679185</v>
       </c>
       <c r="F3" t="n">
         <v>16812.40227510025</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24459.99848317884</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.5441737104</v>
       </c>
       <c r="L3" t="n">
-        <v>56451.54017170907</v>
+        <v>13013.48053938545</v>
       </c>
       <c r="M3" t="n">
-        <v>132471.1406570149</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>104296.1325766028</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113526.9335845151</v>
       </c>
       <c r="D4" t="n">
-        <v>129865.9200706957</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>735.104511902245</v>
+        <v>778.5914659720129</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8454367128343</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>762.8454367128343</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8454367128344</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,13 +26445,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>6148.690207415874</v>
+        <v>6148.690207415872</v>
       </c>
       <c r="M4" t="n">
         <v>6148.690207415872</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780234</v>
+        <v>16466.62778780235</v>
       </c>
       <c r="O4" t="n">
         <v>16466.62778780236</v>
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253609</v>
       </c>
       <c r="D5" t="n">
-        <v>69865.88913079081</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>68558.17706174903</v>
+        <v>74150.69479362154</v>
       </c>
       <c r="F5" t="n">
-        <v>72125.72087391997</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>72125.72087391997</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>72125.72087391999</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-317169.4500776512</v>
+        <v>-263947.3834580606</v>
       </c>
       <c r="C6" t="n">
-        <v>-174978.1494179413</v>
+        <v>-212663.9829332558</v>
       </c>
       <c r="D6" t="n">
-        <v>-199461.1430287643</v>
+        <v>-134132.7747416304</v>
       </c>
       <c r="E6" t="n">
-        <v>-179978.7813621697</v>
+        <v>-188960.1942809615</v>
       </c>
       <c r="F6" t="n">
-        <v>-39856.64775091645</v>
+        <v>-42674.43919732276</v>
       </c>
       <c r="G6" t="n">
-        <v>-23044.24547581619</v>
+        <v>-25862.03692222252</v>
       </c>
       <c r="H6" t="n">
-        <v>-23044.24547581622</v>
+        <v>-25862.03692222252</v>
       </c>
       <c r="I6" t="n">
-        <v>-50298.81106601871</v>
+        <v>-25862.03692222252</v>
       </c>
       <c r="J6" t="n">
-        <v>-136853.2779278301</v>
+        <v>-136876.5022672127</v>
       </c>
       <c r="K6" t="n">
-        <v>-25838.81258283988</v>
+        <v>-88433.58109593292</v>
       </c>
       <c r="L6" t="n">
-        <v>-88068.65692834472</v>
+        <v>-44630.59729602112</v>
       </c>
       <c r="M6" t="n">
-        <v>-164088.2574136506</v>
+        <v>-169194.8174944876</v>
       </c>
       <c r="N6" t="n">
         <v>-38367.51052485123</v>
       </c>
       <c r="O6" t="n">
-        <v>-38367.5105248512</v>
+        <v>-38367.51052485123</v>
       </c>
       <c r="P6" t="n">
-        <v>-38367.51052485123</v>
+        <v>-38367.51052485121</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874738</v>
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="D4" t="n">
-        <v>596.0244922827437</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1127.601596410346</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.1209170281869</v>
       </c>
       <c r="D4" t="n">
-        <v>171.7286347626394</v>
+        <v>0.09843205956570955</v>
       </c>
       <c r="E4" t="n">
-        <v>531.577104127602</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="F4" t="n">
         <v>58.67670743702229</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.98219953737703</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281869</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626394</v>
+        <v>0.09843205956570955</v>
       </c>
       <c r="M4" t="n">
-        <v>531.577104127602</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281869</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626394</v>
+        <v>0.09843205956570955</v>
       </c>
       <c r="M4" t="n">
-        <v>531.577104127602</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
         <v>58.67670743702229</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>142.9263636663859</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>96.50542258430204</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>104.8966564691691</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>170.6655777986814</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27616,10 +27616,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>370.149721389379</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>11.59127066917296</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.393894469001</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>280.770829253329</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.52051738371236</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.766182674437</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -30274,7 +30274,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874688</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
         <v>16.23571033874738</v>
@@ -30286,7 +30286,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874697</v>
       </c>
       <c r="Y38" t="n">
         <v>16.23571033874738</v>
@@ -30891,13 +30891,13 @@
         <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="P46" t="n">
         <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
         <v>16.23571033874738</v>
@@ -34775,19 +34775,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>262.4693064538401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="N4" t="n">
-        <v>58.38468441396105</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,22 +34942,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.4314645073556</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="P6" t="n">
-        <v>288.796249040161</v>
+        <v>348.066098938975</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.06447625372903</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>596.0244922827437</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827436</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>445.0855195119912</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>65.29474673313882</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>596.0244922827437</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,7 +35337,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>181.0507747742107</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N11" t="n">
-        <v>1127.601596410346</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>495.2575480062328</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>831.7872796865026</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1010.441995484729</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36136,10 +36136,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>393.7257841191176</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,13 +36373,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>489.1496219844275</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37230,19 +37230,19 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033059</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900414</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
         <v>186.127402120901</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>404.4043982844095</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37467,7 +37467,7 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M37" t="n">
         <v>480.360828703306</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209006</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>525.6020760720386</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37561,10 +37561,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>144.4457920260402</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>144.4457920260403</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>144.4457920260402</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38029,16 +38029,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>144.4457920260402</v>
+        <v>42.50567403883178</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
